--- a/z0bug_odoo/data/account_payment_term_line.xlsx
+++ b/z0bug_odoo/data/account_payment_term_line.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -55,15 +55,30 @@
     <t xml:space="preserve">payment_method_debit</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_0_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.payment_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_after_invoice_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_invoice_financing.riba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_credit_transfer.sepa_credit_transfer</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.payment_1_1</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.payment_1</t>
   </si>
   <si>
-    <t xml:space="preserve">balance</t>
-  </si>
-  <si>
     <t xml:space="preserve">fix_day_following_month</t>
   </si>
   <si>
@@ -91,19 +106,10 @@
     <t xml:space="preserve">z0bug.payment_3</t>
   </si>
   <si>
-    <t xml:space="preserve">account_banking_invoice_financing.riba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account_banking_sepa_credit_transfer.sepa_credit_transfer</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.payment_4_1</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.payment_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_after_invoice_date</t>
   </si>
   <si>
     <t xml:space="preserve">account_banking_sepa_direct_debit.sepa_direct_debit</t>
@@ -125,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,22 +156,15 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -211,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,10 +220,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,247 +240,279 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="37.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="982" min="12" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/account_payment_term_line.xlsx
+++ b/z0bug_odoo/data/account_payment_term_line.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">z0bug.payment_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fix_day_following_month</t>
+    <t xml:space="preserve">after_invoice_month</t>
   </si>
   <si>
     <t xml:space="preserve">account_banking_riba.riba</t>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">account_payment_method.sdd-o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.payment_4_2</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.payment_5_1</t>
@@ -240,10 +243,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,9 +476,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
@@ -491,13 +496,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -509,9 +514,38 @@
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/z0bug_odoo/data/account_payment_term_line.xlsx
+++ b/z0bug_odoo/data/account_payment_term_line.xlsx
@@ -246,7 +246,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +499,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>

--- a/z0bug_odoo/data/account_payment_term_line.xlsx
+++ b/z0bug_odoo/data/account_payment_term_line.xlsx
@@ -246,24 +246,24 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="47.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="982" min="12" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,8 +551,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
